--- a/indigo/spreadsheetform_guides/project_v005.xlsx
+++ b/indigo/spreadsheetform_guides/project_v005.xlsx
@@ -1437,7 +1437,7 @@
     <t xml:space="preserve">SPREADSHEETFORM:DOWN:technical_assistance_details:cost_type/value</t>
   </si>
   <si>
-    <t xml:space="preserve">SPREADSHEETFORM:DOWN:technical_assistance_details:cost_of_activities/value</t>
+    <t xml:space="preserve">SPREADSHEETFORM:DOWN:technical_assistance_details:cost_of_activities/amount/value</t>
   </si>
   <si>
     <t xml:space="preserve">SPREADSHEETFORM:DOWN:technical_assistance_details:number_of_days/value</t>
@@ -5645,7 +5645,7 @@
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" customFormat="false" ht="129.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="129.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="11" t="s">
         <v>447</v>
       </c>
@@ -6053,12 +6053,12 @@
       <formula1>"PUBLIC,PRIVATE,DISPUTED"</formula1>
       <formula2>0</formula2>
     </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="K6:K33" type="list">
+      <formula1>"PUBLIC,PRIVATE,DISPUTED"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B5:C33 G5:H33" type="none">
       <formula1>0</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="K6:K33" type="list">
-      <formula1>"PUBLIC,PRIVATE,DISPUTED"</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E5:E33" type="list">
